--- a/devices.xlsx
+++ b/devices.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\districtgames\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="15" yWindow="30" windowWidth="14415" windowHeight="13380" activeTab="8"/>
+    <workbookView xWindow="15" yWindow="30" windowWidth="14415" windowHeight="13380" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="boiler" sheetId="4" r:id="rId1"/>
@@ -15,9 +20,8 @@
     <sheet name="stc" sheetId="7" r:id="rId6"/>
     <sheet name="tes" sheetId="8" r:id="rId7"/>
     <sheet name="bat" sheetId="9" r:id="rId8"/>
-    <sheet name="inv" sheetId="10" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="285">
   <si>
     <t>Number</t>
   </si>
@@ -863,282 +867,6 @@
     <t>http://www.photovoltaik4all.de/speicher/victron-energy/3179/victron-ecomulti-24/3000/70-50-2-3kwh-inklusive-batterie</t>
   </si>
   <si>
-    <t>ABB PVI-3.0-TL-OUTD-S</t>
-  </si>
-  <si>
-    <t>ABB PVI-3.6-TL-OUTD-S</t>
-  </si>
-  <si>
-    <t>ABB PVI-4.2-TL-OUTD-S</t>
-  </si>
-  <si>
-    <t>ABB Trio 5.8 TL OUTD-S</t>
-  </si>
-  <si>
-    <t>ABB Trio 7.5 TL OUTD-S</t>
-  </si>
-  <si>
-    <t>ABB Trio 8.5 TL OUTD-S</t>
-  </si>
-  <si>
-    <t>ABB PVI-10.0-TL-OUTD-FS</t>
-  </si>
-  <si>
-    <t>ABB PVI-12.5-TL-OUTD-FS</t>
-  </si>
-  <si>
-    <t>ABB TRIO-20.0-TL-OUTD-S2X-400</t>
-  </si>
-  <si>
-    <t>ABB TRIO-27.6-TL-OUTD-S2X-400</t>
-  </si>
-  <si>
-    <t>SMA Sunny Tripower STP 5000TL-20</t>
-  </si>
-  <si>
-    <t>SMA Sunny Tripower STP 6000TL-20</t>
-  </si>
-  <si>
-    <t>SMA Sunny Tripower STP 7000TL-20</t>
-  </si>
-  <si>
-    <t>SMA Sunny Tripower STP 8000TL-20</t>
-  </si>
-  <si>
-    <t>SMA Sunny Tripower STP 9000TL-20</t>
-  </si>
-  <si>
-    <t>SMA Sunny Tripower STP 10000TL-20</t>
-  </si>
-  <si>
-    <t>SMA Sunny Tripower STP 12000TL-20</t>
-  </si>
-  <si>
-    <t>SMA Sunny Tripower STP 15000TL-10</t>
-  </si>
-  <si>
-    <t>SMA SUNNY TRIPOWER STP 25000TL-30</t>
-  </si>
-  <si>
-    <t>SMA SUNNY TRIPOWER STP 20000TL-30</t>
-  </si>
-  <si>
-    <t>SMA Sunny Boy SB 1.5</t>
-  </si>
-  <si>
-    <t>SMA Sunny Boy SB 2.5</t>
-  </si>
-  <si>
-    <t>SMA Sunny Boy SB 3000TL-21</t>
-  </si>
-  <si>
-    <t>SMA Sunny Boy SB 3600TL-21</t>
-  </si>
-  <si>
-    <t>SMA Sunny Boy SB 4000TL-21</t>
-  </si>
-  <si>
-    <t>SMA Sunny Boy SB 5000TL-21</t>
-  </si>
-  <si>
-    <t>Solaredge SE2200 Wechselrichter</t>
-  </si>
-  <si>
-    <t>Solaredge SE3000 Wechselrichter</t>
-  </si>
-  <si>
-    <t>Solaredge SE3500 Wechselrichter</t>
-  </si>
-  <si>
-    <t>Solaredge SE4000 Wechselrichter</t>
-  </si>
-  <si>
-    <t>Solaredge SE5000 Wechselrichter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diehl AKO PLATINUM 2100 H </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diehl AKO PLATINUM 5500 R3 S2B </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diehl AKO PLATINUM 9000 R3 S2B </t>
-  </si>
-  <si>
-    <t>Danfoss SMA FLX Pro 15k</t>
-  </si>
-  <si>
-    <t>Danfoss SMA FLX Pro 17k</t>
-  </si>
-  <si>
-    <t>Solaredge SE4K</t>
-  </si>
-  <si>
-    <t>Solaredge SE5K</t>
-  </si>
-  <si>
-    <t>Solaredge SE7K</t>
-  </si>
-  <si>
-    <t>Solaredge SE8K</t>
-  </si>
-  <si>
-    <t>Solaredge SE9K</t>
-  </si>
-  <si>
-    <t>Solaredge SE10K</t>
-  </si>
-  <si>
-    <t>Solaredge SE15K</t>
-  </si>
-  <si>
-    <t>Solaredge SE12.5K</t>
-  </si>
-  <si>
-    <t>Solaredge SE16K</t>
-  </si>
-  <si>
-    <t>Solaredge SE17K</t>
-  </si>
-  <si>
-    <t>http://www.mg-solar-shop.de/Wechselrichter/ABB-Wechselrichter-Aurora-PVI/ABB-Aurora-PVI-3-0-TL-OUTD-S.html</t>
-  </si>
-  <si>
-    <t>http://www.mg-solar-shop.de/Wechselrichter/ABB-Wechselrichter-Aurora-PVI/ABB-Aurora-PVI-3-6-TL-OUTD-S.html</t>
-  </si>
-  <si>
-    <t>http://www.mg-solar-shop.de/Wechselrichter/ABB-Wechselrichter-Aurora-PVI/ABB-Aurora-PVI-4-2-TL-OUTD-S.html</t>
-  </si>
-  <si>
-    <t>http://www.mg-solar-shop.de/Wechselrichter/ABB-Wechselrichter-Aurora-PVI/ABB-Aurora-Trio-5-8-TL-OUTD-S.html</t>
-  </si>
-  <si>
-    <t>http://www.mg-solar-shop.de/Wechselrichter/ABB-Wechselrichter-Aurora-PVI/ABB-Aurora-Trio-7-5-TL-OUTD-S.html</t>
-  </si>
-  <si>
-    <t>http://www.mg-solar-shop.de/Wechselrichter/ABB-Wechselrichter-Aurora-PVI/ABB-Aurora-Trio-8-5-TL-OUTD-S.html</t>
-  </si>
-  <si>
-    <t>http://www.mg-solar-shop.de/Wechselrichter/ABB-Wechselrichter-Aurora-PVI/ABB-Aurora-PVI-10-0-TL-OUTD-FS.html</t>
-  </si>
-  <si>
-    <t>http://www.mg-solar-shop.de/Wechselrichter/ABB-Wechselrichter-Aurora-PVI/ABB-Aurora-PVI-12-5-TL-OUTD-FS.html</t>
-  </si>
-  <si>
-    <t>http://www.mg-solar-shop.de/Wechselrichter/ABB-Wechselrichter-Aurora-PVI/ABB-TRIO-20-0-TL-OUTD-S2X-400.html</t>
-  </si>
-  <si>
-    <t>http://www.mg-solar-shop.de/Wechselrichter/ABB-Wechselrichter-Aurora-PVI/ABB-TRIO-27-6-TL-OUTD-S2X-400.html</t>
-  </si>
-  <si>
-    <t>http://www.mg-solar-shop.de/Wechselrichter/SMA-Wechselrichter/SMA-Sunny-Tripower-STP-5000TL-20.html</t>
-  </si>
-  <si>
-    <t>http://www.mg-solar-shop.de/Wechselrichter/SMA-Wechselrichter/SMA-Sunny-Tripower-STP-6000TL-20.html</t>
-  </si>
-  <si>
-    <t>http://www.mg-solar-shop.de/Wechselrichter/SMA-Wechselrichter/SMA-Sunny-Tripower-STP-7000TL-20.html</t>
-  </si>
-  <si>
-    <t>http://www.mg-solar-shop.de/Wechselrichter/SMA-Wechselrichter/SMA-Sunny-Tripower-STP-8000TL-20.html</t>
-  </si>
-  <si>
-    <t>http://www.mg-solar-shop.de/Wechselrichter/SMA-Wechselrichter/SMA-Sunny-Tripower-STP-9000TL-20.html</t>
-  </si>
-  <si>
-    <t>http://www.mg-solar-shop.de/Wechselrichter/SMA-Wechselrichter/SMA-Sunny-Tripower-STP-10000TL-20.html</t>
-  </si>
-  <si>
-    <t>http://www.mg-solar-shop.de/Wechselrichter/SMA-Wechselrichter/SMA-Sunny-Tripower-STP-12000TL-20.html</t>
-  </si>
-  <si>
-    <t>http://www.mg-solar-shop.de/Wechselrichter/SMA-Wechselrichter/SMA-Sunny-Tripower-STP-15000TL-10.html</t>
-  </si>
-  <si>
-    <t>http://www.mg-solar-shop.de/Wechselrichter/SMA-Wechselrichter/SMA-SUNNY-TRIPOWER-STP-25000TL-30.html</t>
-  </si>
-  <si>
-    <t>http://www.mg-solar-shop.de/Wechselrichter/SMA-Wechselrichter/SMA-SUNNY-TRIPOWER-STP-20000TL-30.html</t>
-  </si>
-  <si>
-    <t>http://www.mg-solar-shop.de/Wechselrichter/SMA-Wechselrichter/SMA-Sunny-Boy-SB-1-5-Solar-Wechselrichter.html</t>
-  </si>
-  <si>
-    <t>http://www.mg-solar-shop.de/Wechselrichter/SMA-Wechselrichter/SMA-Sunny-Boy-SB-2-5-Solar-Wechselrichter.html</t>
-  </si>
-  <si>
-    <t>http://www.mg-solar-shop.de/Wechselrichter/SMA-Wechselrichter/SMA-Sunny-Boy-3000TL-21-Wechselrichter.html</t>
-  </si>
-  <si>
-    <t>http://www.mg-solar-shop.de/Wechselrichter/SMA-Wechselrichter/SMA-Sunny-Boy-3600TL-21-Wechselrichter.html</t>
-  </si>
-  <si>
-    <t>http://www.mg-solar-shop.de/Wechselrichter/SMA-Wechselrichter/SMA-Sunny-Boy-4000TL-21-Wechselrichter.html</t>
-  </si>
-  <si>
-    <t>http://www.mg-solar-shop.de/Wechselrichter/SMA-Wechselrichter/SMA-Sunny-Boy-5000TL-21-Wechselrichter.html</t>
-  </si>
-  <si>
-    <t>http://www.mg-solar-shop.de/Wechselrichter/SolarEdge-PV-Wechselrichter/Solaredge-SE2200-Wechselrichter.html</t>
-  </si>
-  <si>
-    <t>http://www.mg-solar-shop.de/Wechselrichter/SolarEdge-PV-Wechselrichter/Solaredge-SE3000-Wechselrichter.html</t>
-  </si>
-  <si>
-    <t>http://www.mg-solar-shop.de/Wechselrichter/SolarEdge-PV-Wechselrichter/Solaredge-SE3500-Wechselrichter.html</t>
-  </si>
-  <si>
-    <t>http://www.mg-solar-shop.de/Wechselrichter/SolarEdge-PV-Wechselrichter/Solaredge-SE4000-Wechselrichter.html</t>
-  </si>
-  <si>
-    <t>http://www.mg-solar-shop.de/Wechselrichter/SolarEdge-PV-Wechselrichter/Solaredge-SE5000-Wechselrichter.html</t>
-  </si>
-  <si>
-    <t>http://www.mg-solar-shop.de/Wechselrichter/Diehl-Ako-Wechselrichter/Diehl-AKO-PLATINUM-2100-H.html</t>
-  </si>
-  <si>
-    <t>http://www.mg-solar-shop.de/Wechselrichter/Diehl-Ako-Wechselrichter/Diehl-AKO-PLATINUM-5500-R3.html</t>
-  </si>
-  <si>
-    <t>http://www.mg-solar-shop.de/Wechselrichter/Diehl-Ako-Wechselrichter/Diehl-AKO-PLATINUM-9000-R3.html</t>
-  </si>
-  <si>
-    <t>http://www.mg-solar-shop.de/Wechselrichter/SMA-Wechselrichter/Wechselrichter-Danfoss-FLX-Pro-15-k.html</t>
-  </si>
-  <si>
-    <t>http://www.mg-solar-shop.de/Wechselrichter/SMA-Wechselrichter/Wechselrichter-Danfoss-FLX-Pro-17-k.html</t>
-  </si>
-  <si>
-    <t>http://www.mg-solar-shop.de/Wechselrichter/SolarEdge-PV-Wechselrichter/Solaredge-SE4K-Wechselrichter.html</t>
-  </si>
-  <si>
-    <t>http://www.mg-solar-shop.de/Wechselrichter/SolarEdge-PV-Wechselrichter/Solaredge-SE5K-Wechselrichter.html</t>
-  </si>
-  <si>
-    <t>http://www.mg-solar-shop.de/Wechselrichter/SolarEdge-PV-Wechselrichter/Solaredge-SE7K-Wechselrichter.html</t>
-  </si>
-  <si>
-    <t>http://www.mg-solar-shop.de/Wechselrichter/SolarEdge-PV-Wechselrichter/Solaredge-SE8K-Wechselrichter.html</t>
-  </si>
-  <si>
-    <t>http://www.mg-solar-shop.de/Wechselrichter/SolarEdge-PV-Wechselrichter/Solaredge-SE9K-Wechselrichter.html</t>
-  </si>
-  <si>
-    <t>http://www.mg-solar-shop.de/Wechselrichter/SolarEdge-PV-Wechselrichter/Solaredge-SE10K-Wechselrichter.html</t>
-  </si>
-  <si>
-    <t>http://www.mg-solar-shop.de/Wechselrichter/SolarEdge-PV-Wechselrichter/Solaredge-SE15K-Wechselrichter.html</t>
-  </si>
-  <si>
-    <t>http://www.mg-solar-shop.de/Wechselrichter/SolarEdge-PV-Wechselrichter/Solaredge-SE12-5K-Wechselrichter.html</t>
-  </si>
-  <si>
-    <t>http://www.mg-solar-shop.de/Wechselrichter/SolarEdge-PV-Wechselrichter/Solaredge-SE16K-Wechselrichter.html</t>
-  </si>
-  <si>
-    <t>http://www.mg-solar-shop.de/Wechselrichter/SolarEdge-PV-Wechselrichter/Solaredge-SE17K-Wechselrichter.html</t>
-  </si>
-  <si>
     <t>First-order coefficienct [kW/(m2K2)]</t>
   </si>
   <si>
@@ -1158,15 +886,12 @@
   </si>
   <si>
     <t>P_dch_max [kW]</t>
-  </si>
-  <si>
-    <t>P_nom_DC_In [kW]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -1217,7 +942,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1488,7 +1213,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1519,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>372</v>
+        <v>280</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -2052,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>372</v>
+        <v>280</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -2757,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>372</v>
+        <v>280</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -3301,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>372</v>
+        <v>280</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -4026,7 +3751,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>373</v>
+        <v>281</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
@@ -4047,7 +3772,7 @@
         <v>10</v>
       </c>
       <c r="I1" t="s">
-        <v>374</v>
+        <v>282</v>
       </c>
       <c r="J1" t="s">
         <v>7</v>
@@ -4740,10 +4465,10 @@
         <v>12</v>
       </c>
       <c r="G1" t="s">
-        <v>370</v>
+        <v>278</v>
       </c>
       <c r="H1" t="s">
-        <v>371</v>
+        <v>279</v>
       </c>
       <c r="I1" t="s">
         <v>7</v>
@@ -6206,7 +5931,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
@@ -6243,10 +5968,10 @@
         <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>375</v>
+        <v>283</v>
       </c>
       <c r="H1" t="s">
-        <v>376</v>
+        <v>284</v>
       </c>
       <c r="I1" t="s">
         <v>7</v>
@@ -7150,1335 +6875,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H47"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>377</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>3.12</v>
-      </c>
-      <c r="C2" s="2">
-        <v>865.3</v>
-      </c>
-      <c r="D2" s="2">
-        <f>0.01*C2</f>
-        <v>8.6530000000000005</v>
-      </c>
-      <c r="E2">
-        <v>15</v>
-      </c>
-      <c r="F2">
-        <v>0.96</v>
-      </c>
-      <c r="G2" t="s">
-        <v>278</v>
-      </c>
-      <c r="H2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <f>A2+1</f>
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>3.75</v>
-      </c>
-      <c r="C3" s="2">
-        <v>970</v>
-      </c>
-      <c r="D3" s="2">
-        <f t="shared" ref="D3:D47" si="0">0.01*C3</f>
-        <v>9.7000000000000011</v>
-      </c>
-      <c r="E3">
-        <v>15</v>
-      </c>
-      <c r="F3">
-        <v>0.96</v>
-      </c>
-      <c r="G3" t="s">
-        <v>279</v>
-      </c>
-      <c r="H3" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <f t="shared" ref="A4:A47" si="1">A3+1</f>
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>4.375</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1049.5</v>
-      </c>
-      <c r="D4" s="2">
-        <f t="shared" si="0"/>
-        <v>10.495000000000001</v>
-      </c>
-      <c r="E4">
-        <v>15</v>
-      </c>
-      <c r="F4">
-        <v>0.96</v>
-      </c>
-      <c r="G4" t="s">
-        <v>280</v>
-      </c>
-      <c r="H4" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>5.95</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1375.6</v>
-      </c>
-      <c r="D5" s="2">
-        <f t="shared" si="0"/>
-        <v>13.756</v>
-      </c>
-      <c r="E5">
-        <v>15</v>
-      </c>
-      <c r="F5">
-        <v>0.97399999999999998</v>
-      </c>
-      <c r="G5" t="s">
-        <v>281</v>
-      </c>
-      <c r="H5" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>7.65</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1663.7</v>
-      </c>
-      <c r="D6" s="2">
-        <f t="shared" si="0"/>
-        <v>16.637</v>
-      </c>
-      <c r="E6">
-        <v>15</v>
-      </c>
-      <c r="F6">
-        <v>0.97499999999999998</v>
-      </c>
-      <c r="G6" t="s">
-        <v>282</v>
-      </c>
-      <c r="H6" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1744.1</v>
-      </c>
-      <c r="D7" s="2">
-        <f t="shared" si="0"/>
-        <v>17.440999999999999</v>
-      </c>
-      <c r="E7">
-        <v>15</v>
-      </c>
-      <c r="F7">
-        <v>0.97499999999999998</v>
-      </c>
-      <c r="G7" t="s">
-        <v>283</v>
-      </c>
-      <c r="H7" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>10.3</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1924.7</v>
-      </c>
-      <c r="D8" s="2">
-        <f t="shared" si="0"/>
-        <v>19.247</v>
-      </c>
-      <c r="E8">
-        <v>15</v>
-      </c>
-      <c r="F8">
-        <v>0.97099999999999997</v>
-      </c>
-      <c r="G8" t="s">
-        <v>284</v>
-      </c>
-      <c r="H8" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>12.8</v>
-      </c>
-      <c r="C9" s="2">
-        <v>2143.3000000000002</v>
-      </c>
-      <c r="D9" s="2">
-        <f t="shared" si="0"/>
-        <v>21.433000000000003</v>
-      </c>
-      <c r="E9">
-        <v>15</v>
-      </c>
-      <c r="F9">
-        <v>0.97199999999999998</v>
-      </c>
-      <c r="G9" t="s">
-        <v>285</v>
-      </c>
-      <c r="H9" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>20.75</v>
-      </c>
-      <c r="C10" s="2">
-        <v>3661.6</v>
-      </c>
-      <c r="D10" s="2">
-        <f t="shared" si="0"/>
-        <v>36.616</v>
-      </c>
-      <c r="E10">
-        <v>15</v>
-      </c>
-      <c r="F10">
-        <v>0.98</v>
-      </c>
-      <c r="G10" t="s">
-        <v>286</v>
-      </c>
-      <c r="H10" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>28.6</v>
-      </c>
-      <c r="C11" s="2">
-        <v>4171</v>
-      </c>
-      <c r="D11" s="2">
-        <f t="shared" si="0"/>
-        <v>41.71</v>
-      </c>
-      <c r="E11">
-        <v>15</v>
-      </c>
-      <c r="F11">
-        <v>0.98</v>
-      </c>
-      <c r="G11" t="s">
-        <v>287</v>
-      </c>
-      <c r="H11" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="C12" s="2">
-        <v>1556.36</v>
-      </c>
-      <c r="D12" s="2">
-        <f t="shared" si="0"/>
-        <v>15.563599999999999</v>
-      </c>
-      <c r="E12">
-        <v>15</v>
-      </c>
-      <c r="F12">
-        <v>0.97099999999999997</v>
-      </c>
-      <c r="G12" t="s">
-        <v>288</v>
-      </c>
-      <c r="H12" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>6.125</v>
-      </c>
-      <c r="C13" s="2">
-        <v>1732.08</v>
-      </c>
-      <c r="D13" s="2">
-        <f t="shared" si="0"/>
-        <v>17.320799999999998</v>
-      </c>
-      <c r="E13">
-        <v>15</v>
-      </c>
-      <c r="F13">
-        <v>0.97399999999999998</v>
-      </c>
-      <c r="G13" t="s">
-        <v>289</v>
-      </c>
-      <c r="H13" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>7.1749999999999998</v>
-      </c>
-      <c r="C14" s="2">
-        <v>1879.34</v>
-      </c>
-      <c r="D14" s="2">
-        <f t="shared" si="0"/>
-        <v>18.793399999999998</v>
-      </c>
-      <c r="E14">
-        <v>15</v>
-      </c>
-      <c r="F14">
-        <v>0.97499999999999998</v>
-      </c>
-      <c r="G14" t="s">
-        <v>290</v>
-      </c>
-      <c r="H14" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="C15" s="2">
-        <v>1996.49</v>
-      </c>
-      <c r="D15" s="2">
-        <f t="shared" si="0"/>
-        <v>19.9649</v>
-      </c>
-      <c r="E15">
-        <v>15</v>
-      </c>
-      <c r="F15">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="G15" t="s">
-        <v>291</v>
-      </c>
-      <c r="H15" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>9.2249999999999996</v>
-      </c>
-      <c r="C16" s="2">
-        <v>2114.4699999999998</v>
-      </c>
-      <c r="D16" s="2">
-        <f t="shared" si="0"/>
-        <v>21.144699999999997</v>
-      </c>
-      <c r="E16">
-        <v>15</v>
-      </c>
-      <c r="F16">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="G16" t="s">
-        <v>292</v>
-      </c>
-      <c r="H16" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="C17" s="2">
-        <v>2290.19</v>
-      </c>
-      <c r="D17" s="2">
-        <f t="shared" si="0"/>
-        <v>22.901900000000001</v>
-      </c>
-      <c r="E17">
-        <v>15</v>
-      </c>
-      <c r="F17">
-        <v>0.97699999999999998</v>
-      </c>
-      <c r="G17" t="s">
-        <v>293</v>
-      </c>
-      <c r="H17" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>12.25</v>
-      </c>
-      <c r="C18" s="2">
-        <v>2613.17</v>
-      </c>
-      <c r="D18" s="2">
-        <f t="shared" si="0"/>
-        <v>26.131700000000002</v>
-      </c>
-      <c r="E18">
-        <v>15</v>
-      </c>
-      <c r="F18">
-        <v>0.97699999999999998</v>
-      </c>
-      <c r="G18" t="s">
-        <v>294</v>
-      </c>
-      <c r="H18" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>15.34</v>
-      </c>
-      <c r="C19" s="2">
-        <v>3230.7</v>
-      </c>
-      <c r="D19" s="2">
-        <f t="shared" si="0"/>
-        <v>32.307000000000002</v>
-      </c>
-      <c r="E19">
-        <v>15</v>
-      </c>
-      <c r="F19">
-        <v>0.97799999999999998</v>
-      </c>
-      <c r="G19" t="s">
-        <v>295</v>
-      </c>
-      <c r="H19" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>25.55</v>
-      </c>
-      <c r="C20" s="2">
-        <v>3669.99</v>
-      </c>
-      <c r="D20" s="2">
-        <f t="shared" si="0"/>
-        <v>36.6999</v>
-      </c>
-      <c r="E20">
-        <v>15</v>
-      </c>
-      <c r="F20">
-        <v>0.98099999999999998</v>
-      </c>
-      <c r="G20" t="s">
-        <v>296</v>
-      </c>
-      <c r="H20" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>20.440000000000001</v>
-      </c>
-      <c r="C21" s="2">
-        <v>3203.08</v>
-      </c>
-      <c r="D21" s="2">
-        <f t="shared" si="0"/>
-        <v>32.030799999999999</v>
-      </c>
-      <c r="E21">
-        <v>15</v>
-      </c>
-      <c r="F21">
-        <v>0.98</v>
-      </c>
-      <c r="G21" t="s">
-        <v>297</v>
-      </c>
-      <c r="H21" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>1.6</v>
-      </c>
-      <c r="C22" s="2">
-        <v>585.19000000000005</v>
-      </c>
-      <c r="D22" s="2">
-        <f t="shared" si="0"/>
-        <v>5.8519000000000005</v>
-      </c>
-      <c r="E22">
-        <v>15</v>
-      </c>
-      <c r="F22">
-        <v>0.96099999999999997</v>
-      </c>
-      <c r="G22" t="s">
-        <v>298</v>
-      </c>
-      <c r="H22" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>2.65</v>
-      </c>
-      <c r="C23" s="2">
-        <v>787.55</v>
-      </c>
-      <c r="D23" s="2">
-        <f t="shared" si="0"/>
-        <v>7.8754999999999997</v>
-      </c>
-      <c r="E23">
-        <v>15</v>
-      </c>
-      <c r="F23">
-        <v>0.96699999999999997</v>
-      </c>
-      <c r="G23" t="s">
-        <v>299</v>
-      </c>
-      <c r="H23" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>3.2</v>
-      </c>
-      <c r="C24" s="2">
-        <v>1102.8599999999999</v>
-      </c>
-      <c r="D24" s="2">
-        <f t="shared" si="0"/>
-        <v>11.028599999999999</v>
-      </c>
-      <c r="E24">
-        <v>15</v>
-      </c>
-      <c r="F24">
-        <v>0.96</v>
-      </c>
-      <c r="G24" t="s">
-        <v>300</v>
-      </c>
-      <c r="H24" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>3.88</v>
-      </c>
-      <c r="C25" s="2">
-        <v>1119.3699999999999</v>
-      </c>
-      <c r="D25" s="2">
-        <f t="shared" si="0"/>
-        <v>11.1937</v>
-      </c>
-      <c r="E25">
-        <v>15</v>
-      </c>
-      <c r="F25">
-        <v>0.96299999999999997</v>
-      </c>
-      <c r="G25" t="s">
-        <v>301</v>
-      </c>
-      <c r="H25" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <v>4.2</v>
-      </c>
-      <c r="C26" s="2">
-        <v>1196.8800000000001</v>
-      </c>
-      <c r="D26" s="2">
-        <f t="shared" si="0"/>
-        <v>11.968800000000002</v>
-      </c>
-      <c r="E26">
-        <v>15</v>
-      </c>
-      <c r="F26">
-        <v>0.96399999999999997</v>
-      </c>
-      <c r="G26" t="s">
-        <v>302</v>
-      </c>
-      <c r="H26" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <v>5.25</v>
-      </c>
-      <c r="C27" s="2">
-        <v>1343.08</v>
-      </c>
-      <c r="D27" s="2">
-        <f t="shared" si="0"/>
-        <v>13.4308</v>
-      </c>
-      <c r="E27">
-        <v>15</v>
-      </c>
-      <c r="F27">
-        <v>0.96499999999999997</v>
-      </c>
-      <c r="G27" t="s">
-        <v>303</v>
-      </c>
-      <c r="H27" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="B28">
-        <v>2.4</v>
-      </c>
-      <c r="C28" s="2">
-        <v>713.2</v>
-      </c>
-      <c r="D28" s="2">
-        <f t="shared" si="0"/>
-        <v>7.1320000000000006</v>
-      </c>
-      <c r="E28">
-        <v>15</v>
-      </c>
-      <c r="F28">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="G28" t="s">
-        <v>304</v>
-      </c>
-      <c r="H28" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <v>3.3</v>
-      </c>
-      <c r="C29" s="2">
-        <v>812.9</v>
-      </c>
-      <c r="D29" s="2">
-        <f t="shared" si="0"/>
-        <v>8.1289999999999996</v>
-      </c>
-      <c r="E29">
-        <v>15</v>
-      </c>
-      <c r="F29">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="G29" t="s">
-        <v>305</v>
-      </c>
-      <c r="H29" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <f t="shared" si="1"/>
-        <v>29</v>
-      </c>
-      <c r="B30">
-        <v>3.9</v>
-      </c>
-      <c r="C30" s="2">
-        <v>934.5</v>
-      </c>
-      <c r="D30" s="2">
-        <f t="shared" si="0"/>
-        <v>9.3450000000000006</v>
-      </c>
-      <c r="E30">
-        <v>15</v>
-      </c>
-      <c r="F30">
-        <v>0.97499999999999998</v>
-      </c>
-      <c r="G30" t="s">
-        <v>306</v>
-      </c>
-      <c r="H30" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="B31">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="C31" s="2">
-        <v>1002.2</v>
-      </c>
-      <c r="D31" s="2">
-        <f t="shared" si="0"/>
-        <v>10.022</v>
-      </c>
-      <c r="E31">
-        <v>15</v>
-      </c>
-      <c r="F31">
-        <v>0.97499999999999998</v>
-      </c>
-      <c r="G31" t="s">
-        <v>307</v>
-      </c>
-      <c r="H31" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <f t="shared" si="1"/>
-        <v>31</v>
-      </c>
-      <c r="B32">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="C32" s="2">
-        <v>1056.0999999999999</v>
-      </c>
-      <c r="D32" s="2">
-        <f t="shared" si="0"/>
-        <v>10.561</v>
-      </c>
-      <c r="E32">
-        <v>15</v>
-      </c>
-      <c r="F32">
-        <v>0.97399999999999998</v>
-      </c>
-      <c r="G32" t="s">
-        <v>308</v>
-      </c>
-      <c r="H32" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <f t="shared" si="1"/>
-        <v>32</v>
-      </c>
-      <c r="B33">
-        <v>2.1</v>
-      </c>
-      <c r="C33" s="2">
-        <v>623.79999999999995</v>
-      </c>
-      <c r="D33" s="2">
-        <f t="shared" si="0"/>
-        <v>6.2379999999999995</v>
-      </c>
-      <c r="E33">
-        <v>15</v>
-      </c>
-      <c r="F33">
-        <v>0.96</v>
-      </c>
-      <c r="G33" t="s">
-        <v>309</v>
-      </c>
-      <c r="H33" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
-      <c r="B34">
-        <v>5.2</v>
-      </c>
-      <c r="C34" s="2">
-        <v>1201</v>
-      </c>
-      <c r="D34" s="2">
-        <f t="shared" si="0"/>
-        <v>12.01</v>
-      </c>
-      <c r="E34">
-        <v>15</v>
-      </c>
-      <c r="F34">
-        <v>0.98199999999999998</v>
-      </c>
-      <c r="G34" t="s">
-        <v>310</v>
-      </c>
-      <c r="H34" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <f t="shared" si="1"/>
-        <v>34</v>
-      </c>
-      <c r="B35">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="C35" s="2">
-        <v>1415.2</v>
-      </c>
-      <c r="D35" s="2">
-        <f t="shared" si="0"/>
-        <v>14.152000000000001</v>
-      </c>
-      <c r="E35">
-        <v>15</v>
-      </c>
-      <c r="F35">
-        <v>0.98199999999999998</v>
-      </c>
-      <c r="G35" t="s">
-        <v>311</v>
-      </c>
-      <c r="H35" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="B36">
-        <v>15.5</v>
-      </c>
-      <c r="C36" s="2">
-        <v>2283.54</v>
-      </c>
-      <c r="D36" s="2">
-        <f t="shared" si="0"/>
-        <v>22.8354</v>
-      </c>
-      <c r="E36">
-        <v>15</v>
-      </c>
-      <c r="F36">
-        <v>0.97399999999999998</v>
-      </c>
-      <c r="G36" t="s">
-        <v>312</v>
-      </c>
-      <c r="H36" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <f t="shared" si="1"/>
-        <v>36</v>
-      </c>
-      <c r="B37">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="C37" s="2">
-        <v>2329.2800000000002</v>
-      </c>
-      <c r="D37" s="2">
-        <f t="shared" si="0"/>
-        <v>23.292800000000003</v>
-      </c>
-      <c r="E37">
-        <v>15</v>
-      </c>
-      <c r="F37">
-        <v>0.97399999999999998</v>
-      </c>
-      <c r="G37" t="s">
-        <v>313</v>
-      </c>
-      <c r="H37" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="B38">
-        <v>5</v>
-      </c>
-      <c r="C38" s="2">
-        <v>1254.5999999999999</v>
-      </c>
-      <c r="D38" s="2">
-        <f t="shared" si="0"/>
-        <v>12.545999999999999</v>
-      </c>
-      <c r="E38">
-        <v>15</v>
-      </c>
-      <c r="F38">
-        <v>0.97299999999999998</v>
-      </c>
-      <c r="G38" t="s">
-        <v>314</v>
-      </c>
-      <c r="H38" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <f t="shared" si="1"/>
-        <v>38</v>
-      </c>
-      <c r="B39">
-        <v>6.25</v>
-      </c>
-      <c r="C39" s="2">
-        <v>1267.4000000000001</v>
-      </c>
-      <c r="D39" s="2">
-        <f t="shared" si="0"/>
-        <v>12.674000000000001</v>
-      </c>
-      <c r="E39">
-        <v>15</v>
-      </c>
-      <c r="F39">
-        <v>0.97299999999999998</v>
-      </c>
-      <c r="G39" t="s">
-        <v>315</v>
-      </c>
-      <c r="H39" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <f t="shared" si="1"/>
-        <v>39</v>
-      </c>
-      <c r="B40">
-        <v>8.75</v>
-      </c>
-      <c r="C40" s="2">
-        <v>1399.9</v>
-      </c>
-      <c r="D40" s="2">
-        <f t="shared" si="0"/>
-        <v>13.999000000000001</v>
-      </c>
-      <c r="E40">
-        <v>15</v>
-      </c>
-      <c r="F40">
-        <v>0.97299999999999998</v>
-      </c>
-      <c r="G40" t="s">
-        <v>316</v>
-      </c>
-      <c r="H40" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="B41">
-        <v>10</v>
-      </c>
-      <c r="C41" s="2">
-        <v>1555.4</v>
-      </c>
-      <c r="D41" s="2">
-        <f t="shared" si="0"/>
-        <v>15.554000000000002</v>
-      </c>
-      <c r="E41">
-        <v>15</v>
-      </c>
-      <c r="F41">
-        <v>0.97499999999999998</v>
-      </c>
-      <c r="G41" t="s">
-        <v>317</v>
-      </c>
-      <c r="H41" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <f t="shared" si="1"/>
-        <v>41</v>
-      </c>
-      <c r="B42">
-        <v>11.25</v>
-      </c>
-      <c r="C42" s="2">
-        <v>1616.7</v>
-      </c>
-      <c r="D42" s="2">
-        <f t="shared" si="0"/>
-        <v>16.167000000000002</v>
-      </c>
-      <c r="E42">
-        <v>15</v>
-      </c>
-      <c r="F42">
-        <v>0.97499999999999998</v>
-      </c>
-      <c r="G42" t="s">
-        <v>318</v>
-      </c>
-      <c r="H42" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <f t="shared" si="1"/>
-        <v>42</v>
-      </c>
-      <c r="B43">
-        <v>12.5</v>
-      </c>
-      <c r="C43" s="2">
-        <v>1678.8</v>
-      </c>
-      <c r="D43" s="2">
-        <f t="shared" si="0"/>
-        <v>16.788</v>
-      </c>
-      <c r="E43">
-        <v>15</v>
-      </c>
-      <c r="F43">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="G43" t="s">
-        <v>319</v>
-      </c>
-      <c r="H43" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <f t="shared" si="1"/>
-        <v>43</v>
-      </c>
-      <c r="B44">
-        <v>18.75</v>
-      </c>
-      <c r="C44" s="2">
-        <v>1733.7</v>
-      </c>
-      <c r="D44" s="2">
-        <f t="shared" si="0"/>
-        <v>17.337</v>
-      </c>
-      <c r="E44">
-        <v>15</v>
-      </c>
-      <c r="F44">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="G44" t="s">
-        <v>320</v>
-      </c>
-      <c r="H44" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <f t="shared" si="1"/>
-        <v>44</v>
-      </c>
-      <c r="B45">
-        <v>15.6</v>
-      </c>
-      <c r="C45" s="2">
-        <v>1742.8</v>
-      </c>
-      <c r="D45" s="2">
-        <f t="shared" si="0"/>
-        <v>17.428000000000001</v>
-      </c>
-      <c r="E45">
-        <v>15</v>
-      </c>
-      <c r="F45">
-        <v>0.97699999999999998</v>
-      </c>
-      <c r="G45" t="s">
-        <v>321</v>
-      </c>
-      <c r="H45" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="B46">
-        <v>20</v>
-      </c>
-      <c r="C46" s="2">
-        <v>1752.9</v>
-      </c>
-      <c r="D46" s="2">
-        <f t="shared" si="0"/>
-        <v>17.529</v>
-      </c>
-      <c r="E46">
-        <v>15</v>
-      </c>
-      <c r="F46">
-        <v>0.97699999999999998</v>
-      </c>
-      <c r="G46" t="s">
-        <v>322</v>
-      </c>
-      <c r="H46" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <f t="shared" si="1"/>
-        <v>46</v>
-      </c>
-      <c r="B47">
-        <v>21.25</v>
-      </c>
-      <c r="C47" s="2">
-        <v>1776.7</v>
-      </c>
-      <c r="D47" s="2">
-        <f t="shared" si="0"/>
-        <v>17.766999999999999</v>
-      </c>
-      <c r="E47">
-        <v>15</v>
-      </c>
-      <c r="F47">
-        <v>0.97699999999999998</v>
-      </c>
-      <c r="G47" t="s">
-        <v>323</v>
-      </c>
-      <c r="H47" t="s">
-        <v>369</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
 </file>